--- a/REVER_DailyTracker_20200609.xlsx
+++ b/REVER_DailyTracker_20200609.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6004A8-7EB0-4ADB-A584-E1D59C431EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0968FF5E-4D38-4192-BDCC-1B7966A00C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -22,20 +22,25 @@
     <sheet name="Prabu" sheetId="11" r:id="rId7"/>
     <sheet name="Ram" sheetId="12" r:id="rId8"/>
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
-    <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
-    <sheet name="Mathes" sheetId="13" r:id="rId11"/>
+    <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -67,31 +72,135 @@
     <t>% of completion</t>
   </si>
   <si>
+    <t>[Backend] CRM</t>
+  </si>
+  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>Rever B2C</t>
-  </si>
-  <si>
-    <t>IF full flow with technician tracking integration</t>
-  </si>
-  <si>
-    <t>APK sent.</t>
-  </si>
-  <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
-    <t>RPA</t>
-  </si>
-  <si>
-    <t>Selenium- Psummary and PDetail customization</t>
+    <t>DotnetAPP</t>
+  </si>
+  <si>
+    <t>Loginpage (Frontend)</t>
+  </si>
+  <si>
+    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
+2. Customer type dropdownlist has been created using using enum and displayed in right order
+3. Working on onchange events to select all emailid based on customer types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
+ PHP and MYQL
+</t>
+  </si>
+  <si>
+    <t>Hayaai website</t>
+  </si>
+  <si>
+    <t>Sending email is in progress</t>
+  </si>
+  <si>
+    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
+We are waiting for actual email settings for hayaai site.</t>
+  </si>
+  <si>
+    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
+  </si>
+  <si>
+    <t>RPA_Sale/[Front End]  Full app keyword search</t>
+  </si>
+  <si>
+    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
+the result with paging and pagelisted concept in MVC</t>
+  </si>
+  <si>
+    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
+  </si>
+  <si>
+    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
+ like styling and crossref link or sublink tasks are pending.</t>
+  </si>
+  <si>
+    <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
+  </si>
+  <si>
+    <t>No data found has been implemented if no records found and etc.
+Attended in RPASale_dev deployeement task</t>
+  </si>
+  <si>
+    <t>Today, I was engaged in rpa selenium tasks for DRS, GRS, and GRD
+DRS was done,
+GRS, till dowload portion is over and whereas, upload is pending as issue in converting xls to csv.</t>
+  </si>
+  <si>
+    <t>Jiffy_to_selenium</t>
+  </si>
+  <si>
+    <t>Conversion from jiffy to selenium for the tasks of Goods Receiving Summary and Goods Receiving details are completed,
+whereas the conversion of warranty is WIP</t>
+  </si>
+  <si>
+    <t>Leave on 22-05-2020</t>
+  </si>
+  <si>
+    <t>RPA Customization</t>
+  </si>
+  <si>
+    <t>Conversion from JIFFY to selenium for the tasks of DRS, GRS and GRD are completed, CSV conversion for warranty is in Pending.</t>
+  </si>
+  <si>
+    <t>Customization of RPA tasks named as GRS and GRD are completed,  no data found for warranty and csv header/contents  validations are in progress. Also DRS no data found is also pending.</t>
+  </si>
+  <si>
+    <t>DRS Daily, DRS Weekly and DRS Monthly are completed with download/upload and no data found.
+Warranty csv file is having issue and hence it has been shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>Warranty CSV file is having uploading issue.</t>
+  </si>
+  <si>
+    <t>POC confirmation task  has been implemented at new bot, and it will work for download and upload success</t>
+  </si>
+  <si>
+    <t>1. Fine tuning with DRS, GRS and GRD are done.
+2. POC task has been implementation done with download/upload/nodata found/failed to download steps are tested and 
+3. OtherSales(extended warranty ) implementation is going on with PO values/withou PO values to get UnitPrice along with download and upload steps are in Progress.
+4. Mr Mohan san has asked to run GRS and GRD for all centers to know the success and issue while running continueously.</t>
+  </si>
+  <si>
+    <t>Tested for all services dynamically for DRS, GRS and GRD are done, In GRDetails a file moving issue after uploading.</t>
+  </si>
+  <si>
+    <t>POC Task tested and validated for downloading, uploading and for no data found with email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. POC Tasks for all centers has been developed  to download and upload
+2. GRS and GRDetails tasks are completed.
+3. CommunicationBoard task has been tested for SSC1, as could not find notification, we could not complete the test for all centers
+</t>
+  </si>
+  <si>
+    <t>1.POC tasks tested for all centeres excluding SSC10 individually at new bot
+2. Anchor element not found at JIFFY for DRS and Warranty daily tasks has been solved and it is running smoothly to download and
+upload.</t>
+  </si>
+  <si>
+    <t>POC Tasks are completed and tested till SSC6 and are going smooth for download and uploaded for rpa customization tasks,
+POC Taks are placed at scheduler
+Also developed code to convert purchase summary xls to csv file and uploaded successful.</t>
+  </si>
+  <si>
+    <t>Invalid data Issue during upload at SSC10 of Warranty task has been solved and updated script file also shared to Mohan san.</t>
+  </si>
+  <si>
+    <t>Dowload and upload for POC task has been tested from SSC1 to SSC10 exclusing SSC5 and SSC9 and going smooth and 
+placed in scheduler.(newbot)</t>
+  </si>
+  <si>
+    <t>Hayaai-Website</t>
+  </si>
+  <si>
+    <t>Learning and reviewing the Hayaai-Website</t>
   </si>
 </sst>
 </file>
@@ -101,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,22 +231,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,27 +308,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,46 +329,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,25 +662,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G71" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -639,18 +1051,20 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -659,49 +1073,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -710,26 +1124,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -752,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -761,7 +1176,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -770,49 +1185,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -821,26 +1236,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -863,30 +1279,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -895,49 +1297,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -946,26 +1348,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -988,142 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1132,7 +1400,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1141,49 +1409,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1192,26 +1460,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1503,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1243,7 +1636,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1252,49 +1645,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1303,26 +1696,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1345,119 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43991</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1466,7 +1748,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1475,49 +1757,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1526,26 +1808,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1568,7 +1851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1577,7 +1860,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1586,49 +1869,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1637,26 +1920,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1679,7 +1963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1688,7 +1972,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1697,160 +1981,49 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200609.xlsx
+++ b/REVER_DailyTracker_20200609.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA912C2-5E3B-49F8-A15D-CFC0FBC466DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -78,20 +84,22 @@
   </si>
   <si>
     <t>Regression testing on RPA Site</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Media file approval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,155 +133,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,7 +159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,188 +181,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -540,262 +231,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -824,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -836,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -845,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -857,63 +306,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1171,27 +580,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="104.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1215,7 +624,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="25" customFormat="1" ht="28.9" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="26"/>
@@ -1233,23 +642,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1280,29 +689,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1370,7 +777,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1391,7 +798,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7" s="1" customFormat="1">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1412,21 +819,21 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1457,29 +864,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1523,23 +928,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1570,29 +975,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1618,21 +1021,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="5">
+        <v>43991</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="24"/>
@@ -1640,23 +1051,23 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1687,29 +1098,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1753,23 +1162,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1800,29 +1209,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1866,23 +1273,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1913,29 +1320,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1970,21 +1375,21 @@
       <c r="F2" s="23"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="19" spans="3:3">
+    <row r="3" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="19" spans="2:3">
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
@@ -2015,29 +1420,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2081,23 +1484,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2128,29 +1531,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2194,23 +1595,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2241,29 +1642,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2307,23 +1706,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2354,29 +1753,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2420,23 +1817,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2467,7 +1864,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/REVER_DailyTracker_20200609.xlsx
+++ b/REVER_DailyTracker_20200609.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA912C2-5E3B-49F8-A15D-CFC0FBC466DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -25,12 +19,12 @@
     <sheet name="Nirmal" sheetId="17" r:id="rId10"/>
     <sheet name="Mathes" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -90,12 +84,18 @@
   </si>
   <si>
     <t>Media file approval</t>
+  </si>
+  <si>
+    <t>RPA_Sales</t>
+  </si>
+  <si>
+    <t>Implemented PPT  in RPA_Sale project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -313,7 +313,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -980,10 +980,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1103,11 +1103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1145,12 +1145,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43991</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
@@ -1214,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1325,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1425,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1536,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1647,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1758,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/REVER_DailyTracker_20200609.xlsx
+++ b/REVER_DailyTracker_20200609.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC616E1-7DC0-48E2-940A-9C02CB59A4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -90,12 +96,18 @@
   </si>
   <si>
     <t>Implemented PPT  in RPA_Sale project</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>Purchase detail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -313,7 +325,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,22 +597,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -624,7 +636,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="25" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="26"/>
@@ -694,22 +706,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -869,22 +881,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -980,22 +992,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1021,7 +1033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1042,7 +1054,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -1103,22 +1115,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1226,22 +1238,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1270,9 +1282,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.8</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
@@ -1337,22 +1355,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1437,22 +1455,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1548,22 +1566,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1659,22 +1677,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1770,22 +1788,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
